--- a/src/test/resources/UnumGWLSpouseTestData.xlsx
+++ b/src/test/resources/UnumGWLSpouseTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\UnumGWL\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C00FCE-906F-4CFB-82E5-3EC19697DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA9221-1EDB-4634-A497-ADA92A617EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{2748AA7B-8C91-4D91-A9ED-968E1435E932}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2748AA7B-8C91-4D91-A9ED-968E1435E932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,13 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -441,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>319507882</v>
+        <v>319507883</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
